--- a/users.xlsx
+++ b/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY APP\PYTHON\Feeder Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A6EB1-6BE9-4069-B53A-D622C95304BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D01075-CC8C-4B99-96B0-17F65BA9BC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>user27</t>
   </si>
   <si>
-    <t>user28</t>
-  </si>
-  <si>
     <t>user29</t>
   </si>
   <si>
@@ -1028,6 +1025,9 @@
   </si>
   <si>
     <t>Dhahrah Al-Janoub Office مركز ظهران الجنوب</t>
+  </si>
+  <si>
+    <t>mousa</t>
   </si>
 </sst>
 </file>
@@ -1403,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1435,10 +1435,10 @@
         <v>1234</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1449,10 +1449,10 @@
         <v>1234</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,10 +1463,10 @@
         <v>1234</v>
       </c>
       <c r="C4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1477,10 +1477,10 @@
         <v>1234</v>
       </c>
       <c r="C5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1491,10 +1491,10 @@
         <v>1234</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1505,10 +1505,10 @@
         <v>1234</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1519,10 +1519,10 @@
         <v>1234</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1533,10 +1533,10 @@
         <v>1234</v>
       </c>
       <c r="C9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1547,10 +1547,10 @@
         <v>1234</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1561,10 +1561,10 @@
         <v>1234</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1575,10 +1575,10 @@
         <v>1234</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1589,10 +1589,10 @@
         <v>1234</v>
       </c>
       <c r="C13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1603,10 +1603,10 @@
         <v>1234</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1617,10 +1617,10 @@
         <v>1234</v>
       </c>
       <c r="C15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +1631,10 @@
         <v>1234</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D16" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1645,7 +1645,7 @@
         <v>1234</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D17" t="s">
         <v>4</v>
@@ -1659,10 +1659,10 @@
         <v>1234</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1673,7 +1673,7 @@
         <v>1234</v>
       </c>
       <c r="C19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -1687,7 +1687,7 @@
         <v>1234</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1701,10 +1701,10 @@
         <v>1234</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1715,10 +1715,10 @@
         <v>1234</v>
       </c>
       <c r="C22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1729,7 +1729,7 @@
         <v>1234</v>
       </c>
       <c r="C23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1743,10 +1743,10 @@
         <v>1234</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1757,10 +1757,10 @@
         <v>1234</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1771,10 +1771,10 @@
         <v>1234</v>
       </c>
       <c r="C26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1785,7 +1785,7 @@
         <v>1234</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D27" t="s">
         <v>8</v>
@@ -1799,7 +1799,7 @@
         <v>1234</v>
       </c>
       <c r="C28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
         <v>9</v>
@@ -1807,41 +1807,41 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>334</v>
       </c>
       <c r="B29">
-        <v>1234</v>
+        <v>151087</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30">
         <v>1234</v>
       </c>
       <c r="C30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B31">
         <v>1234</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
         <v>10</v>
@@ -1849,55 +1849,55 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>1234</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>1234</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B34">
         <v>1234</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35">
         <v>1234</v>
       </c>
       <c r="C35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B36">
         <v>1234</v>
       </c>
       <c r="C36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1919,69 +1919,69 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>1234</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>1234</v>
       </c>
       <c r="C38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39">
         <v>1234</v>
       </c>
       <c r="C39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B40">
         <v>1234</v>
       </c>
       <c r="C40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41">
         <v>1234</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
@@ -1989,27 +1989,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>1234</v>
       </c>
       <c r="C42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>1234</v>
       </c>
       <c r="C43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>1234</v>
       </c>
       <c r="C44" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2031,27 +2031,27 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>1234</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>1234</v>
       </c>
       <c r="C46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
@@ -2059,13 +2059,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47">
         <v>1234</v>
       </c>
       <c r="C47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
@@ -2073,13 +2073,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48">
         <v>1234</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
@@ -2087,937 +2087,937 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B49">
         <v>1234</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>1234</v>
       </c>
       <c r="C50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51">
         <v>1234</v>
       </c>
       <c r="C51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D51" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B52">
         <v>1234</v>
       </c>
       <c r="C52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53">
         <v>1234</v>
       </c>
       <c r="C53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B54">
         <v>1234</v>
       </c>
       <c r="C54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B55">
         <v>1234</v>
       </c>
       <c r="C55" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D55" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B56">
         <v>1234</v>
       </c>
       <c r="C56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57">
         <v>1234</v>
       </c>
       <c r="C57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D57" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58">
         <v>1234</v>
       </c>
       <c r="C58" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D58" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59">
         <v>1234</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B60">
         <v>1234</v>
       </c>
       <c r="C60" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D60" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61">
         <v>1234</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62">
         <v>1234</v>
       </c>
       <c r="C62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B63">
         <v>1234</v>
       </c>
       <c r="C63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B64">
         <v>1234</v>
       </c>
       <c r="C64" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D64" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>1234</v>
       </c>
       <c r="C65" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B66">
         <v>1234</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D66" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>1234</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68">
         <v>1234</v>
       </c>
       <c r="C68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69">
         <v>1234</v>
       </c>
       <c r="C69" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70">
         <v>1234</v>
       </c>
       <c r="C70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D70" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71">
         <v>1234</v>
       </c>
       <c r="C71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D71" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B72">
         <v>1234</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D72" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73">
         <v>1234</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D73" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B74">
         <v>1234</v>
       </c>
       <c r="C74" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75">
         <v>1234</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B76">
         <v>1234</v>
       </c>
       <c r="C76" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D76" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B77">
         <v>1234</v>
       </c>
       <c r="C77" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D77" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B78">
         <v>1234</v>
       </c>
       <c r="C78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B79">
         <v>1234</v>
       </c>
       <c r="C79" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80">
         <v>1234</v>
       </c>
       <c r="C80" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D80" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B81">
         <v>1234</v>
       </c>
       <c r="C81" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D81" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82">
         <v>1234</v>
       </c>
       <c r="C82" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D82" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83">
         <v>1234</v>
       </c>
       <c r="C83" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B84">
         <v>1234</v>
       </c>
       <c r="C84" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D84" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B85">
         <v>1234</v>
       </c>
       <c r="C85" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B86">
         <v>1234</v>
       </c>
       <c r="C86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>1234</v>
       </c>
       <c r="C87" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D87" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B88">
         <v>1234</v>
       </c>
       <c r="C88" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B89">
         <v>1234</v>
       </c>
       <c r="C89" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90">
         <v>1234</v>
       </c>
       <c r="C90" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D90" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B91">
         <v>1234</v>
       </c>
       <c r="C91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D91" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B92">
         <v>1234</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D92" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B93">
         <v>1234</v>
       </c>
       <c r="C93" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94">
         <v>1234</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B95">
         <v>1234</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B96">
         <v>1234</v>
       </c>
       <c r="C96" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D96" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97">
         <v>1234</v>
       </c>
       <c r="C97" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98">
         <v>1234</v>
       </c>
       <c r="C98" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D98" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99">
         <v>1234</v>
       </c>
       <c r="C99" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D99" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100">
         <v>1234</v>
       </c>
       <c r="C100" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D100" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101">
         <v>1234</v>
       </c>
       <c r="C101" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D101" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102">
         <v>1234</v>
       </c>
       <c r="C102" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103">
         <v>1234</v>
       </c>
       <c r="C103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104">
         <v>1234</v>
       </c>
       <c r="C104" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105">
         <v>1234</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106">
         <v>1234</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D106" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B107">
         <v>1234</v>
       </c>
       <c r="C107" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B108">
         <v>1234</v>
       </c>
       <c r="C108" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B109">
         <v>1234</v>
       </c>
       <c r="C109" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D109" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B110">
         <v>1234</v>
       </c>
       <c r="C110" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D110" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>1234</v>
       </c>
       <c r="C111" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D111" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>1234</v>
       </c>
       <c r="C112" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D112" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B113">
         <v>1234</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B114">
         <v>1234</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115">
         <v>1234</v>
       </c>
       <c r="C115" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B116">
         <v>1234</v>
       </c>
       <c r="C116" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D116" t="s">
         <v>20</v>
@@ -3039,69 +3039,69 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B117">
         <v>1234</v>
       </c>
       <c r="C117" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B118">
         <v>1234</v>
       </c>
       <c r="C118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B119">
         <v>1234</v>
       </c>
       <c r="C119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B120">
         <v>1234</v>
       </c>
       <c r="C120" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D120" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B121">
         <v>1234</v>
       </c>
       <c r="C121" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D121" t="s">
         <v>21</v>
@@ -3109,405 +3109,405 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B122">
         <v>1234</v>
       </c>
       <c r="C122" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D122" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B123">
         <v>1234</v>
       </c>
       <c r="C123" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D123" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B124">
         <v>1234</v>
       </c>
       <c r="C124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D124" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B125">
         <v>1234</v>
       </c>
       <c r="C125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D125" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B126">
         <v>1234</v>
       </c>
       <c r="C126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D126" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B127">
         <v>1234</v>
       </c>
       <c r="C127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D127" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B128">
         <v>1234</v>
       </c>
       <c r="C128" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D128" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>1234</v>
       </c>
       <c r="C129" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D129" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B130">
         <v>1234</v>
       </c>
       <c r="C130" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D130" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B131">
         <v>1234</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D131" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B132">
         <v>1234</v>
       </c>
       <c r="C132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D132" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B133">
         <v>1234</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B134">
         <v>1234</v>
       </c>
       <c r="C134" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D134" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B135">
         <v>1234</v>
       </c>
       <c r="C135" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D135" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B136">
         <v>1234</v>
       </c>
       <c r="C136" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D136" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B137">
         <v>1234</v>
       </c>
       <c r="C137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D137" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B138">
         <v>1234</v>
       </c>
       <c r="C138" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D138" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B139">
         <v>1234</v>
       </c>
       <c r="C139" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D139" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B140">
         <v>1234</v>
       </c>
       <c r="C140" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D140" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B141">
         <v>1234</v>
       </c>
       <c r="C141" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D141" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142">
         <v>1234</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D142" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143">
         <v>1234</v>
       </c>
       <c r="C143" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D143" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144">
         <v>1234</v>
       </c>
       <c r="C144" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D144" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B145">
         <v>1234</v>
       </c>
       <c r="C145" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B146">
         <v>1234</v>
       </c>
       <c r="C146" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D146" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B147">
         <v>1234</v>
       </c>
       <c r="C147" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D147" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B148">
         <v>1234</v>
       </c>
       <c r="C148" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B149">
         <v>1234</v>
       </c>
       <c r="C149" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D149" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B150">
         <v>1234</v>
       </c>
       <c r="C150" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D150" t="s">
         <v>22</v>
@@ -3515,167 +3515,167 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B151">
         <v>1234</v>
       </c>
       <c r="C151" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B152">
         <v>1234</v>
       </c>
       <c r="C152" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D152" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B153">
         <v>1234</v>
       </c>
       <c r="C153" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D153" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B154">
         <v>1234</v>
       </c>
       <c r="C154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D154" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B155">
         <v>1234</v>
       </c>
       <c r="C155" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D155" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B156">
         <v>1234</v>
       </c>
       <c r="C156" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D156" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B157">
         <v>1234</v>
       </c>
       <c r="C157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D157" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B158">
         <v>1234</v>
       </c>
       <c r="C158" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D158" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B159">
         <v>1234</v>
       </c>
       <c r="C159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B160">
         <v>1234</v>
       </c>
       <c r="C160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D160" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B161">
         <v>1234</v>
       </c>
       <c r="C161" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B162">
         <v>1234</v>
       </c>
       <c r="C162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D162" t="s">
         <v>24</v>
@@ -3683,27 +3683,27 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B163">
         <v>1234</v>
       </c>
       <c r="C163" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>187</v>
+      </c>
+      <c r="B164">
+        <v>1234</v>
+      </c>
+      <c r="C164" t="s">
         <v>188</v>
-      </c>
-      <c r="B164">
-        <v>1234</v>
-      </c>
-      <c r="C164" t="s">
-        <v>189</v>
       </c>
       <c r="D164" t="s">
         <v>23</v>

--- a/users.xlsx
+++ b/users.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28620"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY APP\PYTHON\Feeder Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F8F173-3EF0-41B3-BEFA-9220ECA25961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFE691-8CD6-44E2-B039-6200DE220224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="337">
   <si>
     <t>username</t>
   </si>
@@ -1030,6 +1030,12 @@
   </si>
   <si>
     <t>user163</t>
+  </si>
+  <si>
+    <t>A.Suliman</t>
+  </si>
+  <si>
+    <t>7pL9dMd</t>
   </si>
 </sst>
 </file>
@@ -1364,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="D169" sqref="D169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,21 +1425,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>1234</v>
+        <v>335</v>
+      </c>
+      <c r="B4" t="s">
+        <v>336</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>1234</v>
@@ -1442,12 +1448,12 @@
         <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>1234</v>
@@ -1456,12 +1462,12 @@
         <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>1234</v>
@@ -1470,12 +1476,12 @@
         <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>1234</v>
@@ -1484,12 +1490,12 @@
         <v>119</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9">
         <v>1234</v>
@@ -1498,12 +1504,12 @@
         <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10">
         <v>1234</v>
@@ -1512,12 +1518,12 @@
         <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11">
         <v>1234</v>
@@ -1526,12 +1532,12 @@
         <v>119</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12">
         <v>1234</v>
@@ -1540,12 +1546,12 @@
         <v>119</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13">
         <v>1234</v>
@@ -1554,12 +1560,12 @@
         <v>119</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14">
         <v>1234</v>
@@ -1568,12 +1574,12 @@
         <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15">
         <v>1234</v>
@@ -1582,12 +1588,12 @@
         <v>119</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16">
         <v>1234</v>
@@ -1596,12 +1602,12 @@
         <v>119</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17">
         <v>1234</v>
@@ -1610,12 +1616,12 @@
         <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B18">
         <v>1234</v>
@@ -1624,12 +1630,12 @@
         <v>119</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B19">
         <v>1234</v>
@@ -1638,12 +1644,12 @@
         <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B20">
         <v>1234</v>
@@ -1652,12 +1658,12 @@
         <v>119</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>1234</v>
@@ -1666,12 +1672,12 @@
         <v>119</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B22">
         <v>1234</v>
@@ -1680,12 +1686,12 @@
         <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B23">
         <v>1234</v>
@@ -1694,12 +1700,12 @@
         <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24">
         <v>1234</v>
@@ -1708,12 +1714,12 @@
         <v>119</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25">
         <v>1234</v>
@@ -1722,12 +1728,12 @@
         <v>119</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26">
         <v>1234</v>
@@ -1736,12 +1742,12 @@
         <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27">
         <v>1234</v>
@@ -1750,12 +1756,12 @@
         <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>1234</v>
@@ -1764,12 +1770,12 @@
         <v>119</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B29">
         <v>1234</v>
@@ -1778,12 +1784,12 @@
         <v>119</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B30">
         <v>1234</v>
@@ -1792,12 +1798,12 @@
         <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B31">
         <v>1234</v>
@@ -1806,12 +1812,12 @@
         <v>119</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B32">
         <v>1234</v>
@@ -1820,12 +1826,12 @@
         <v>119</v>
       </c>
       <c r="D32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B33">
         <v>1234</v>
@@ -1834,12 +1840,12 @@
         <v>119</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B34">
         <v>1234</v>
@@ -1848,12 +1854,12 @@
         <v>119</v>
       </c>
       <c r="D34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B35">
         <v>1234</v>
@@ -1862,12 +1868,12 @@
         <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B36">
         <v>1234</v>
@@ -1876,12 +1882,12 @@
         <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B37">
         <v>1234</v>
@@ -1890,12 +1896,12 @@
         <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B38">
         <v>1234</v>
@@ -1904,12 +1910,12 @@
         <v>119</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B39">
         <v>1234</v>
@@ -1918,12 +1924,12 @@
         <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B40">
         <v>1234</v>
@@ -1932,12 +1938,12 @@
         <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B41">
         <v>1234</v>
@@ -1946,12 +1952,12 @@
         <v>119</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B42">
         <v>1234</v>
@@ -1960,12 +1966,12 @@
         <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B43">
         <v>1234</v>
@@ -1974,12 +1980,12 @@
         <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>1234</v>
@@ -1988,12 +1994,12 @@
         <v>119</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45">
         <v>1234</v>
@@ -2002,12 +2008,12 @@
         <v>119</v>
       </c>
       <c r="D45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46">
         <v>1234</v>
@@ -2016,12 +2022,12 @@
         <v>119</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B47">
         <v>1234</v>
@@ -2030,12 +2036,12 @@
         <v>119</v>
       </c>
       <c r="D47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B48">
         <v>1234</v>
@@ -2044,12 +2050,12 @@
         <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49">
         <v>1234</v>
@@ -2058,12 +2064,12 @@
         <v>119</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B50">
         <v>1234</v>
@@ -2072,12 +2078,12 @@
         <v>119</v>
       </c>
       <c r="D50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B51">
         <v>1234</v>
@@ -2086,12 +2092,12 @@
         <v>119</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52">
         <v>1234</v>
@@ -2100,12 +2106,12 @@
         <v>119</v>
       </c>
       <c r="D52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B53">
         <v>1234</v>
@@ -2114,12 +2120,12 @@
         <v>119</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B54">
         <v>1234</v>
@@ -2128,12 +2134,12 @@
         <v>119</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55">
         <v>1234</v>
@@ -2142,12 +2148,12 @@
         <v>119</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56">
         <v>1234</v>
@@ -2156,12 +2162,12 @@
         <v>119</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57">
         <v>1234</v>
@@ -2170,12 +2176,12 @@
         <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B58">
         <v>1234</v>
@@ -2184,12 +2190,12 @@
         <v>119</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B59">
         <v>1234</v>
@@ -2198,12 +2204,12 @@
         <v>119</v>
       </c>
       <c r="D59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B60">
         <v>1234</v>
@@ -2212,12 +2218,12 @@
         <v>119</v>
       </c>
       <c r="D60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B61">
         <v>1234</v>
@@ -2226,12 +2232,12 @@
         <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B62">
         <v>1234</v>
@@ -2240,12 +2246,12 @@
         <v>119</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B63">
         <v>1234</v>
@@ -2254,12 +2260,12 @@
         <v>119</v>
       </c>
       <c r="D63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B64">
         <v>1234</v>
@@ -2268,12 +2274,12 @@
         <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B65">
         <v>1234</v>
@@ -2282,12 +2288,12 @@
         <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B66">
         <v>1234</v>
@@ -2296,12 +2302,12 @@
         <v>119</v>
       </c>
       <c r="D66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67">
         <v>1234</v>
@@ -2310,12 +2316,12 @@
         <v>119</v>
       </c>
       <c r="D67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B68">
         <v>1234</v>
@@ -2324,12 +2330,12 @@
         <v>119</v>
       </c>
       <c r="D68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B69">
         <v>1234</v>
@@ -2338,12 +2344,12 @@
         <v>119</v>
       </c>
       <c r="D69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B70">
         <v>1234</v>
@@ -2352,12 +2358,12 @@
         <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B71">
         <v>1234</v>
@@ -2366,12 +2372,12 @@
         <v>119</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72">
         <v>1234</v>
@@ -2380,12 +2386,12 @@
         <v>119</v>
       </c>
       <c r="D72" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B73">
         <v>1234</v>
@@ -2394,12 +2400,12 @@
         <v>119</v>
       </c>
       <c r="D73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B74">
         <v>1234</v>
@@ -2408,12 +2414,12 @@
         <v>119</v>
       </c>
       <c r="D74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B75">
         <v>1234</v>
@@ -2422,12 +2428,12 @@
         <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B76">
         <v>1234</v>
@@ -2436,12 +2442,12 @@
         <v>119</v>
       </c>
       <c r="D76" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B77">
         <v>1234</v>
@@ -2450,12 +2456,12 @@
         <v>119</v>
       </c>
       <c r="D77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B78">
         <v>1234</v>
@@ -2464,12 +2470,12 @@
         <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B79">
         <v>1234</v>
@@ -2478,12 +2484,12 @@
         <v>119</v>
       </c>
       <c r="D79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B80">
         <v>1234</v>
@@ -2492,12 +2498,12 @@
         <v>119</v>
       </c>
       <c r="D80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B81">
         <v>1234</v>
@@ -2506,12 +2512,12 @@
         <v>119</v>
       </c>
       <c r="D81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B82">
         <v>1234</v>
@@ -2520,12 +2526,12 @@
         <v>119</v>
       </c>
       <c r="D82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83">
         <v>1234</v>
@@ -2534,12 +2540,12 @@
         <v>119</v>
       </c>
       <c r="D83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B84">
         <v>1234</v>
@@ -2548,12 +2554,12 @@
         <v>119</v>
       </c>
       <c r="D84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>1234</v>
@@ -2562,12 +2568,12 @@
         <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B86">
         <v>1234</v>
@@ -2576,12 +2582,12 @@
         <v>119</v>
       </c>
       <c r="D86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B87">
         <v>1234</v>
@@ -2590,12 +2596,12 @@
         <v>119</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B88">
         <v>1234</v>
@@ -2604,12 +2610,12 @@
         <v>119</v>
       </c>
       <c r="D88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B89">
         <v>1234</v>
@@ -2618,12 +2624,12 @@
         <v>119</v>
       </c>
       <c r="D89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B90">
         <v>1234</v>
@@ -2632,12 +2638,12 @@
         <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B91">
         <v>1234</v>
@@ -2646,12 +2652,12 @@
         <v>119</v>
       </c>
       <c r="D91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B92">
         <v>1234</v>
@@ -2660,12 +2666,12 @@
         <v>119</v>
       </c>
       <c r="D92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B93">
         <v>1234</v>
@@ -2674,12 +2680,12 @@
         <v>119</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B94">
         <v>1234</v>
@@ -2688,12 +2694,12 @@
         <v>119</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B95">
         <v>1234</v>
@@ -2702,12 +2708,12 @@
         <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B96">
         <v>1234</v>
@@ -2716,12 +2722,12 @@
         <v>119</v>
       </c>
       <c r="D96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B97">
         <v>1234</v>
@@ -2730,12 +2736,12 @@
         <v>119</v>
       </c>
       <c r="D97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B98">
         <v>1234</v>
@@ -2744,12 +2750,12 @@
         <v>119</v>
       </c>
       <c r="D98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B99">
         <v>1234</v>
@@ -2758,12 +2764,12 @@
         <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B100">
         <v>1234</v>
@@ -2772,12 +2778,12 @@
         <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B101">
         <v>1234</v>
@@ -2786,12 +2792,12 @@
         <v>119</v>
       </c>
       <c r="D101" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B102">
         <v>1234</v>
@@ -2800,12 +2806,12 @@
         <v>119</v>
       </c>
       <c r="D102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B103">
         <v>1234</v>
@@ -2814,12 +2820,12 @@
         <v>119</v>
       </c>
       <c r="D103" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B104">
         <v>1234</v>
@@ -2828,12 +2834,12 @@
         <v>119</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B105">
         <v>1234</v>
@@ -2842,12 +2848,12 @@
         <v>119</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B106">
         <v>1234</v>
@@ -2856,12 +2862,12 @@
         <v>119</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B107">
         <v>1234</v>
@@ -2870,12 +2876,12 @@
         <v>119</v>
       </c>
       <c r="D107" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B108">
         <v>1234</v>
@@ -2884,12 +2890,12 @@
         <v>119</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B109">
         <v>1234</v>
@@ -2898,12 +2904,12 @@
         <v>119</v>
       </c>
       <c r="D109" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B110">
         <v>1234</v>
@@ -2912,12 +2918,12 @@
         <v>119</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B111">
         <v>1234</v>
@@ -2926,12 +2932,12 @@
         <v>119</v>
       </c>
       <c r="D111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B112">
         <v>1234</v>
@@ -2940,12 +2946,12 @@
         <v>119</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B113">
         <v>1234</v>
@@ -2954,12 +2960,12 @@
         <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B114">
         <v>1234</v>
@@ -2968,26 +2974,26 @@
         <v>119</v>
       </c>
       <c r="D114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="B115">
         <v>1234</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="D115" t="s">
-        <v>231</v>
+        <v>118</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B116">
         <v>1234</v>
@@ -2996,12 +3002,12 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B117">
         <v>1234</v>
@@ -3010,12 +3016,12 @@
         <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B118">
         <v>1234</v>
@@ -3024,12 +3030,12 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B119">
         <v>1234</v>
@@ -3038,12 +3044,12 @@
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B120">
         <v>1234</v>
@@ -3052,12 +3058,12 @@
         <v>6</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B121">
         <v>1234</v>
@@ -3066,12 +3072,12 @@
         <v>6</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B122">
         <v>1234</v>
@@ -3080,12 +3086,12 @@
         <v>6</v>
       </c>
       <c r="D122" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B123">
         <v>1234</v>
@@ -3094,12 +3100,12 @@
         <v>6</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124">
         <v>1234</v>
@@ -3108,12 +3114,12 @@
         <v>6</v>
       </c>
       <c r="D124" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B125">
         <v>1234</v>
@@ -3122,12 +3128,12 @@
         <v>6</v>
       </c>
       <c r="D125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B126">
         <v>1234</v>
@@ -3136,12 +3142,12 @@
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B127">
         <v>1234</v>
@@ -3150,12 +3156,12 @@
         <v>6</v>
       </c>
       <c r="D127" t="s">
-        <v>7</v>
+        <v>242</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B128">
         <v>1234</v>
@@ -3164,12 +3170,12 @@
         <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B129">
         <v>1234</v>
@@ -3178,12 +3184,12 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B130">
         <v>1234</v>
@@ -3192,12 +3198,12 @@
         <v>6</v>
       </c>
       <c r="D130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B131">
         <v>1234</v>
@@ -3206,12 +3212,12 @@
         <v>6</v>
       </c>
       <c r="D131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B132">
         <v>1234</v>
@@ -3220,12 +3226,12 @@
         <v>6</v>
       </c>
       <c r="D132" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B133">
         <v>1234</v>
@@ -3234,12 +3240,12 @@
         <v>6</v>
       </c>
       <c r="D133" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B134">
         <v>1234</v>
@@ -3248,12 +3254,12 @@
         <v>6</v>
       </c>
       <c r="D134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B135">
         <v>1234</v>
@@ -3262,12 +3268,12 @@
         <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B136">
         <v>1234</v>
@@ -3276,12 +3282,12 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B137">
         <v>1234</v>
@@ -3290,12 +3296,12 @@
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B138">
         <v>1234</v>
@@ -3304,12 +3310,12 @@
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B139">
         <v>1234</v>
@@ -3318,12 +3324,12 @@
         <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B140">
         <v>1234</v>
@@ -3332,12 +3338,12 @@
         <v>6</v>
       </c>
       <c r="D140" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B141">
         <v>1234</v>
@@ -3346,12 +3352,12 @@
         <v>6</v>
       </c>
       <c r="D141" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B142">
         <v>1234</v>
@@ -3360,12 +3366,12 @@
         <v>6</v>
       </c>
       <c r="D142" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B143">
         <v>1234</v>
@@ -3374,12 +3380,12 @@
         <v>6</v>
       </c>
       <c r="D143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B144">
         <v>1234</v>
@@ -3388,12 +3394,12 @@
         <v>6</v>
       </c>
       <c r="D144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B145">
         <v>1234</v>
@@ -3402,12 +3408,12 @@
         <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B146">
         <v>1234</v>
@@ -3416,26 +3422,26 @@
         <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B147">
         <v>1234</v>
       </c>
       <c r="C147" t="s">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B148">
         <v>1234</v>
@@ -3444,12 +3450,12 @@
         <v>298</v>
       </c>
       <c r="D148" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B149">
         <v>1234</v>
@@ -3458,12 +3464,12 @@
         <v>298</v>
       </c>
       <c r="D149" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B150">
         <v>1234</v>
@@ -3472,12 +3478,12 @@
         <v>298</v>
       </c>
       <c r="D150" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B151">
         <v>1234</v>
@@ -3486,26 +3492,26 @@
         <v>298</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B152">
         <v>1234</v>
       </c>
       <c r="C152" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="D152" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B153">
         <v>1234</v>
@@ -3514,12 +3520,12 @@
         <v>318</v>
       </c>
       <c r="D153" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B154">
         <v>1234</v>
@@ -3528,12 +3534,12 @@
         <v>318</v>
       </c>
       <c r="D154" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B155">
         <v>1234</v>
@@ -3542,12 +3548,12 @@
         <v>318</v>
       </c>
       <c r="D155" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B156">
         <v>1234</v>
@@ -3556,12 +3562,12 @@
         <v>318</v>
       </c>
       <c r="D156" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B157">
         <v>1234</v>
@@ -3570,12 +3576,12 @@
         <v>318</v>
       </c>
       <c r="D157" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B158">
         <v>1234</v>
@@ -3584,12 +3590,12 @@
         <v>318</v>
       </c>
       <c r="D158" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B159">
         <v>1234</v>
@@ -3598,12 +3604,12 @@
         <v>318</v>
       </c>
       <c r="D159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B160">
         <v>1234</v>
@@ -3612,12 +3618,12 @@
         <v>318</v>
       </c>
       <c r="D160" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B161">
         <v>1234</v>
@@ -3626,12 +3632,12 @@
         <v>318</v>
       </c>
       <c r="D161" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B162">
         <v>1234</v>
@@ -3640,12 +3646,12 @@
         <v>318</v>
       </c>
       <c r="D162" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B163">
         <v>1234</v>
@@ -3654,12 +3660,12 @@
         <v>318</v>
       </c>
       <c r="D163" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B164">
         <v>1234</v>
@@ -3668,12 +3674,12 @@
         <v>318</v>
       </c>
       <c r="D164" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B165">
         <v>1234</v>
@@ -3682,12 +3688,12 @@
         <v>318</v>
       </c>
       <c r="D165" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B166">
         <v>1234</v>
@@ -3696,6 +3702,20 @@
         <v>318</v>
       </c>
       <c r="D166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>334</v>
+      </c>
+      <c r="B167">
+        <v>1234</v>
+      </c>
+      <c r="C167" t="s">
+        <v>318</v>
+      </c>
+      <c r="D167" t="s">
         <v>333</v>
       </c>
     </row>

--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY APP\PYTHON\Feeder Location\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFE691-8CD6-44E2-B039-6200DE220224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7477E14-E50B-497F-90CE-C564AF761A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="336">
   <si>
     <t>username</t>
   </si>
@@ -1033,9 +1033,6 @@
   </si>
   <si>
     <t>A.Suliman</t>
-  </si>
-  <si>
-    <t>7pL9dMd</t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1370,7 @@
   <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,8 +1424,8 @@
       <c r="A4" t="s">
         <v>335</v>
       </c>
-      <c r="B4" t="s">
-        <v>336</v>
+      <c r="B4">
+        <v>141323</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
